--- a/nodes_source_analyses/energy/energy_power_wind_turbine_inland.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_wind_turbine_inland.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="762"/>
+    <workbookView xWindow="2360" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -434,9 +442,6 @@
     <t xml:space="preserve"> Fixed operational and maintenance costs</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
@@ -749,18 +754,22 @@
   <si>
     <t>http://refman.et-model.com/publications/1927</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,11 +922,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1561,14 +1565,14 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1586,12 +1590,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1616,10 +1620,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1633,7 +1637,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1662,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1684,13 +1688,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1721,7 +1725,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1729,31 +1733,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2014,80 +2018,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3898900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2548,7 +2487,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2987,34 +2926,34 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -3023,7 +2962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>96</v>
@@ -3032,7 +2971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -3041,29 +2980,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="64" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="65"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="66" t="s">
         <v>99</v>
@@ -3072,33 +3011,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="66"/>
       <c r="C12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="66"/>
       <c r="C13" s="69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="66"/>
       <c r="C14" s="67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="66" t="s">
         <v>104</v>
@@ -3107,49 +3046,49 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="66"/>
       <c r="C17" s="71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="66"/>
       <c r="C18" s="72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="66"/>
       <c r="C19" s="73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="74"/>
       <c r="C21" s="76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="74"/>
       <c r="C22" s="77" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="74"/>
       <c r="C23" s="78" t="s">
         <v>112</v>
@@ -3158,49 +3097,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="36" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="1" max="1" width="3.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="148" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C2" s="149"/>
       <c r="D2" s="149"/>
@@ -3208,7 +3142,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="151"/>
       <c r="C3" s="152"/>
       <c r="D3" s="152"/>
@@ -3216,7 +3150,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="151"/>
       <c r="C4" s="152"/>
       <c r="D4" s="152"/>
@@ -3224,7 +3158,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="154"/>
       <c r="C5" s="155"/>
       <c r="D5" s="155"/>
@@ -3232,10 +3166,10 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3246,7 +3180,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:11" s="24" customFormat="1">
+    <row r="8" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="89"/>
       <c r="C8" s="16" t="s">
         <v>37</v>
@@ -3267,7 +3201,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="2:11" s="24" customFormat="1">
+    <row r="9" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="14"/>
       <c r="D9" s="32"/>
@@ -3278,10 +3212,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="14"/>
@@ -3291,7 +3225,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="40" t="s">
         <v>38</v>
@@ -3310,7 +3244,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="40" t="s">
         <v>40</v>
@@ -3330,7 +3264,7 @@
       <c r="J12" s="83"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
         <v>41</v>
@@ -3350,7 +3284,7 @@
       <c r="J13" s="83"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="40" t="s">
         <v>43</v>
@@ -3370,7 +3304,7 @@
       <c r="J14" s="83"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="40" t="s">
         <v>11</v>
@@ -3390,7 +3324,7 @@
       <c r="J15" s="83"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="40" t="s">
         <v>46</v>
@@ -3410,7 +3344,7 @@
       <c r="J16" s="83"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="40" t="s">
         <v>47</v>
@@ -3430,13 +3364,13 @@
       <c r="J17" s="83"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="42">
         <f>'Research data'!H6</f>
@@ -3452,13 +3386,13 @@
       </c>
       <c r="J18" s="83"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -3473,7 +3407,7 @@
       </c>
       <c r="J19" s="83"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
         <v>50</v>
@@ -3494,7 +3428,7 @@
       </c>
       <c r="J20" s="83"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="40" t="s">
         <v>66</v>
@@ -3515,7 +3449,7 @@
       </c>
       <c r="J21" s="83"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="40" t="s">
         <v>51</v>
@@ -3536,7 +3470,7 @@
       </c>
       <c r="J22" s="83"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="40" t="s">
         <v>52</v>
@@ -3557,7 +3491,7 @@
       </c>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="40" t="s">
         <v>53</v>
@@ -3578,7 +3512,7 @@
       </c>
       <c r="J24" s="83"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="37"/>
       <c r="D25" s="86"/>
@@ -3589,10 +3523,10 @@
       <c r="I25" s="37"/>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="86"/>
       <c r="E26" s="87"/>
@@ -3602,7 +3536,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="40" t="s">
         <v>54</v>
@@ -3624,7 +3558,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
       <c r="C28" s="40" t="s">
         <v>55</v>
@@ -3645,7 +3579,7 @@
       </c>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="40" t="s">
         <v>13</v>
@@ -3667,7 +3601,7 @@
       </c>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="40" t="s">
         <v>56</v>
@@ -3688,7 +3622,7 @@
       </c>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
       <c r="C31" s="40" t="s">
         <v>57</v>
@@ -3710,7 +3644,7 @@
       </c>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
       <c r="C32" s="40" t="s">
         <v>58</v>
@@ -3731,7 +3665,7 @@
       </c>
       <c r="J32" s="83"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
         <v>59</v>
@@ -3752,7 +3686,7 @@
       </c>
       <c r="J33" s="83"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="40" t="s">
         <v>62</v>
@@ -3773,7 +3707,7 @@
       </c>
       <c r="J34" s="83"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="40" t="s">
         <v>45</v>
@@ -3792,7 +3726,7 @@
       </c>
       <c r="J35" s="83"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="41"/>
       <c r="C36" s="37"/>
       <c r="D36" s="86"/>
@@ -3803,7 +3737,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="83"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
       <c r="C37" s="14" t="s">
         <v>7</v>
@@ -3816,7 +3750,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="83"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="40" t="s">
         <v>44</v>
@@ -3834,11 +3768,11 @@
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J38" s="83"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="40" t="s">
         <v>60</v>
@@ -3856,11 +3790,11 @@
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" s="83"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="40" t="s">
         <v>61</v>
@@ -3882,7 +3816,7 @@
       </c>
       <c r="J40" s="83"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
       <c r="C41" s="40" t="s">
         <v>42</v>
@@ -3901,7 +3835,7 @@
       </c>
       <c r="J41" s="83"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
       <c r="C42" s="40" t="s">
         <v>63</v>
@@ -3920,7 +3854,7 @@
       </c>
       <c r="J42" s="83"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
       <c r="C43" s="40" t="s">
         <v>14</v>
@@ -3939,7 +3873,7 @@
       </c>
       <c r="J43" s="83"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="41"/>
       <c r="C44" s="40" t="s">
         <v>64</v>
@@ -3958,7 +3892,7 @@
       </c>
       <c r="J44" s="83"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
       <c r="C45" s="40" t="s">
         <v>67</v>
@@ -3977,7 +3911,7 @@
       </c>
       <c r="J45" s="83"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="41"/>
       <c r="C46" s="40" t="s">
         <v>65</v>
@@ -3996,7 +3930,7 @@
       </c>
       <c r="J46" s="83"/>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -4013,43 +3947,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3898900</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4064,37 +3961,37 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="102" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="102" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="102" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="102" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="102" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="102" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="102" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="102" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="102" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="102" customWidth="1"/>
     <col min="7" max="7" width="3" style="102" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="102" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="102" customWidth="1"/>
-    <col min="11" max="11" width="1.375" style="102" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="102" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="102" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="102" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="102" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="102" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="102" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="102" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="102" customWidth="1"/>
-    <col min="20" max="20" width="9.375" style="102" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="102" customWidth="1"/>
-    <col min="22" max="22" width="9.375" style="102" customWidth="1"/>
-    <col min="23" max="23" width="1.875" style="102" customWidth="1"/>
-    <col min="24" max="24" width="55.5" style="102" customWidth="1"/>
-    <col min="25" max="16384" width="10.625" style="102"/>
+    <col min="8" max="8" width="9.5703125" style="102" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="102" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="102" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" style="102" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="102" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="102" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="102" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="102" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="102" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="102" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="102" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="102" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="102" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="102" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="102" customWidth="1"/>
+    <col min="23" max="23" width="1.85546875" style="102" customWidth="1"/>
+    <col min="24" max="24" width="55.42578125" style="102" customWidth="1"/>
+    <col min="25" max="16384" width="10.7109375" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1"/>
-    <row r="2" spans="2:24">
+    <row r="1" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="106"/>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
@@ -4119,7 +4016,7 @@
       <c r="W2" s="107"/>
       <c r="X2" s="107"/>
     </row>
-    <row r="3" spans="2:24" s="24" customFormat="1">
+    <row r="3" spans="2:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="79" t="s">
         <v>117</v>
@@ -4135,7 +4032,7 @@
       </c>
       <c r="I3" s="79"/>
       <c r="J3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="s">
@@ -4163,10 +4060,10 @@
       </c>
       <c r="W3" s="79"/>
       <c r="X3" s="79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="108"/>
       <c r="C4" s="109"/>
       <c r="D4" s="109"/>
@@ -4199,10 +4096,10 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="2:24" ht="16" thickBot="1">
+    <row r="5" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="108"/>
       <c r="C5" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -4226,7 +4123,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="112"/>
     </row>
-    <row r="6" spans="2:24" ht="16" thickBot="1">
+    <row r="6" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="108"/>
       <c r="C6" s="100" t="s">
         <v>33</v>
@@ -4234,7 +4131,7 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="113"/>
       <c r="H6" s="114">
@@ -4248,7 +4145,7 @@
       <c r="T6" s="103"/>
       <c r="X6" s="101"/>
     </row>
-    <row r="7" spans="2:24" ht="18" customHeight="1">
+    <row r="7" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
@@ -4265,7 +4162,7 @@
       <c r="T7" s="103"/>
       <c r="X7" s="101"/>
     </row>
-    <row r="8" spans="2:24" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="108"/>
       <c r="C8" s="33" t="s">
         <v>7</v>
@@ -4285,10 +4182,10 @@
       <c r="R8" s="103"/>
       <c r="X8" s="101"/>
     </row>
-    <row r="9" spans="2:24" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="108"/>
       <c r="C9" s="99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -4318,7 +4215,7 @@
       </c>
       <c r="X9" s="101"/>
     </row>
-    <row r="10" spans="2:24" ht="16" thickBot="1">
+    <row r="10" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="108"/>
       <c r="C10" s="99" t="s">
         <v>5</v>
@@ -4349,10 +4246,10 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="119"/>
       <c r="X10" s="101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="16" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="108"/>
       <c r="C11" s="120" t="s">
         <v>89</v>
@@ -4386,10 +4283,10 @@
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="108"/>
       <c r="C12" s="99"/>
       <c r="D12" s="99"/>
@@ -4407,10 +4304,10 @@
       <c r="Q12" s="103"/>
       <c r="R12" s="119"/>
       <c r="X12" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="108"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4430,7 +4327,7 @@
       <c r="T13" s="103"/>
       <c r="X13" s="101"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickBot="1">
+    <row r="14" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="108"/>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -4454,10 +4351,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="16" thickBot="1">
+    <row r="15" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="108"/>
       <c r="C15" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4483,18 +4380,18 @@
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="16" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="108"/>
       <c r="C16" s="99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="113"/>
       <c r="H16" s="124">
@@ -4524,10 +4421,10 @@
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" ht="16" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="108"/>
       <c r="C17" s="125" t="s">
         <v>119</v>
@@ -4535,7 +4432,7 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="113"/>
       <c r="H17" s="124">
@@ -4559,10 +4456,10 @@
       </c>
       <c r="W17" s="116"/>
       <c r="X17" s="101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" ht="16" thickBot="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="108"/>
       <c r="C18" s="99" t="s">
         <v>8</v>
@@ -4591,10 +4488,10 @@
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" ht="16" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="108"/>
       <c r="C19" s="99" t="s">
         <v>8</v>
@@ -4602,7 +4499,7 @@
       <c r="D19" s="126"/>
       <c r="E19" s="126"/>
       <c r="F19" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="113"/>
       <c r="H19" s="124">
@@ -4623,10 +4520,10 @@
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" ht="16" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="108"/>
       <c r="C20" s="99" t="s">
         <v>120</v>
@@ -4655,10 +4552,10 @@
       <c r="V20" s="130"/>
       <c r="W20" s="116"/>
       <c r="X20" s="101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="108"/>
       <c r="C21" s="99" t="s">
         <v>120</v>
@@ -4666,7 +4563,7 @@
       <c r="D21" s="127"/>
       <c r="E21" s="127"/>
       <c r="F21" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="113"/>
       <c r="H21" s="128">
@@ -4699,10 +4596,10 @@
       </c>
       <c r="W21" s="116"/>
       <c r="X21" s="145" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" ht="16" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="108"/>
       <c r="C22" s="99" t="s">
         <v>76</v>
@@ -4732,17 +4629,12 @@
       </c>
       <c r="W22" s="116"/>
       <c r="X22" s="145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4757,22 +4649,22 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="51" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="51" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="51" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="51" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="51" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="52" customWidth="1"/>
     <col min="10" max="10" width="85" style="51" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="51"/>
+    <col min="11" max="16384" width="33.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="53"/>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
@@ -4783,7 +4675,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="56"/>
       <c r="C3" s="14" t="s">
         <v>24</v>
@@ -4796,7 +4688,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="56"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -4807,7 +4699,7 @@
       <c r="I4" s="57"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="16" t="s">
         <v>34</v>
@@ -4822,19 +4714,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="56"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4845,11 +4737,11 @@
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="56"/>
       <c r="C7" s="59"/>
       <c r="D7" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>90</v>
@@ -4860,13 +4752,13 @@
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
       <c r="C8" s="104" t="s">
         <v>88</v>
@@ -4879,7 +4771,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="56"/>
       <c r="C9" s="60"/>
       <c r="D9" s="50"/>
@@ -4890,11 +4782,11 @@
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="56"/>
       <c r="C10" s="60"/>
       <c r="D10" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="103" t="s">
         <v>25</v>
@@ -4902,17 +4794,17 @@
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="56"/>
       <c r="C11" s="104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4922,7 +4814,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="56"/>
       <c r="C12" s="59"/>
       <c r="D12" s="50"/>
@@ -4933,11 +4825,11 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="56"/>
       <c r="C13" s="60"/>
       <c r="D13" s="103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>25</v>
@@ -4950,13 +4842,13 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="147" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="144" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="56"/>
       <c r="C14" s="59" t="s">
         <v>9</v>
@@ -4968,7 +4860,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="56"/>
       <c r="C15" s="59" t="s">
         <v>85</v>
@@ -4981,13 +4873,13 @@
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="56"/>
       <c r="C16" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="50">
@@ -4998,13 +4890,13 @@
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="147" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J16" s="144" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="56"/>
       <c r="C17" s="60"/>
       <c r="D17" s="50"/>
@@ -5015,7 +4907,7 @@
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="56"/>
       <c r="C18" s="59"/>
       <c r="D18" s="50" t="s">
@@ -5032,16 +4924,16 @@
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J18" s="144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="56"/>
       <c r="C19" s="104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -5051,7 +4943,7 @@
       <c r="I19" s="50"/>
       <c r="J19" s="103"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="56"/>
       <c r="C20" s="59" t="s">
         <v>5</v>
@@ -5064,7 +4956,7 @@
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="56"/>
       <c r="C21" s="59"/>
       <c r="D21" s="50"/>
@@ -5075,7 +4967,7 @@
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="56"/>
       <c r="C22" s="60"/>
       <c r="D22" s="50"/>
@@ -5086,11 +4978,11 @@
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="56"/>
       <c r="C23" s="59"/>
       <c r="D23" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>79</v>
@@ -5103,16 +4995,16 @@
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" s="144" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="56"/>
       <c r="C24" s="104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -5122,7 +5014,7 @@
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="56"/>
       <c r="C25" s="59" t="s">
         <v>5</v>
@@ -5135,13 +5027,13 @@
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="56"/>
       <c r="C26" s="94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="50">
@@ -5152,13 +5044,13 @@
       </c>
       <c r="H26" s="50"/>
       <c r="I26" s="147" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J26" s="144" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="56"/>
       <c r="C27" s="60"/>
       <c r="D27" s="50"/>
@@ -5169,7 +5061,7 @@
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="56"/>
       <c r="C28" s="60"/>
       <c r="D28" s="50" t="s">
@@ -5186,13 +5078,13 @@
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J28" s="144" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="56"/>
       <c r="C29" s="59" t="s">
         <v>9</v>
@@ -5205,7 +5097,7 @@
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="56"/>
       <c r="C30" s="59" t="s">
         <v>85</v>
@@ -5221,11 +5113,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5237,17 +5124,17 @@
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="97" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="97"/>
-    <col min="4" max="4" width="10.75" style="97" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="97"/>
+    <col min="1" max="1" width="5.42578125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="97"/>
+    <col min="4" max="4" width="10.7109375" style="97" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -5262,14 +5149,14 @@
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
     </row>
-    <row r="3" spans="2:14" s="24" customFormat="1">
+    <row r="3" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="89"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -5281,7 +5168,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="136"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
@@ -5296,10 +5183,10 @@
       <c r="M4" s="96"/>
       <c r="N4" s="137"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="136"/>
       <c r="C5" s="103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
@@ -5313,10 +5200,10 @@
       <c r="M5" s="96"/>
       <c r="N5" s="137"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="136"/>
       <c r="C6" s="96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
@@ -5330,7 +5217,7 @@
       <c r="M6" s="96"/>
       <c r="N6" s="137"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="136"/>
       <c r="C7" s="96"/>
       <c r="D7" s="96"/>
@@ -5345,7 +5232,7 @@
       <c r="M7" s="96"/>
       <c r="N7" s="137"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="136"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
@@ -5360,7 +5247,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="137"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="136"/>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
@@ -5375,7 +5262,7 @@
       <c r="M9" s="96"/>
       <c r="N9" s="137"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="136"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
@@ -5390,7 +5277,7 @@
       <c r="M10" s="96"/>
       <c r="N10" s="137"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="136"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -5405,7 +5292,7 @@
       <c r="M11" s="96"/>
       <c r="N11" s="137"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="136"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
@@ -5420,7 +5307,7 @@
       <c r="M12" s="96"/>
       <c r="N12" s="137"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="136"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
@@ -5435,7 +5322,7 @@
       <c r="M13" s="96"/>
       <c r="N13" s="137"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="136"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
@@ -5450,7 +5337,7 @@
       <c r="M14" s="96"/>
       <c r="N14" s="137"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="136"/>
       <c r="C15" s="96"/>
       <c r="D15" s="96"/>
@@ -5465,14 +5352,14 @@
       <c r="M15" s="96"/>
       <c r="N15" s="137"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="136"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96">
         <v>1700</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="96"/>
       <c r="G16" s="96"/>
@@ -5484,14 +5371,14 @@
       <c r="M16" s="96"/>
       <c r="N16" s="137"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="136"/>
       <c r="C17" s="96"/>
       <c r="D17" s="138">
         <v>1270</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="96"/>
       <c r="G17" s="96"/>
@@ -5503,10 +5390,10 @@
       <c r="M17" s="96"/>
       <c r="N17" s="137"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="136"/>
       <c r="C18" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
@@ -5520,7 +5407,7 @@
       <c r="M18" s="96"/>
       <c r="N18" s="137"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="136"/>
       <c r="C19" s="96"/>
       <c r="D19" s="96"/>
@@ -5535,7 +5422,7 @@
       <c r="M19" s="96"/>
       <c r="N19" s="137"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="136"/>
       <c r="C20" s="96"/>
       <c r="D20" s="96"/>
@@ -5550,7 +5437,7 @@
       <c r="M20" s="96"/>
       <c r="N20" s="137"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="136"/>
       <c r="C21" s="96"/>
       <c r="D21" s="96"/>
@@ -5565,7 +5452,7 @@
       <c r="M21" s="96"/>
       <c r="N21" s="137"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="136"/>
       <c r="C22" s="96"/>
       <c r="D22" s="96"/>
@@ -5580,7 +5467,7 @@
       <c r="M22" s="96"/>
       <c r="N22" s="137"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="136"/>
       <c r="C23" s="96"/>
       <c r="D23" s="96"/>
@@ -5595,7 +5482,7 @@
       <c r="M23" s="96"/>
       <c r="N23" s="137"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="136"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
@@ -5610,7 +5497,7 @@
       <c r="M24" s="96"/>
       <c r="N24" s="137"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="136"/>
       <c r="C25" s="96"/>
       <c r="D25" s="96"/>
@@ -5625,7 +5512,7 @@
       <c r="M25" s="96"/>
       <c r="N25" s="137"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="136"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
@@ -5640,7 +5527,7 @@
       <c r="M26" s="96"/>
       <c r="N26" s="137"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="136"/>
       <c r="C27" s="96"/>
       <c r="D27" s="96"/>
@@ -5655,7 +5542,7 @@
       <c r="M27" s="96"/>
       <c r="N27" s="137"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="136"/>
       <c r="C28" s="96"/>
       <c r="D28" s="96"/>
@@ -5670,7 +5557,7 @@
       <c r="M28" s="96"/>
       <c r="N28" s="137"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="136"/>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
@@ -5685,14 +5572,14 @@
       <c r="M29" s="96"/>
       <c r="N29" s="137"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="136"/>
       <c r="C30" s="96"/>
       <c r="D30" s="96">
         <v>17312</v>
       </c>
       <c r="E30" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="96"/>
       <c r="G30" s="96"/>
@@ -5704,7 +5591,7 @@
       <c r="M30" s="96"/>
       <c r="N30" s="137"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="136"/>
       <c r="C31" s="96"/>
       <c r="D31" s="96"/>
@@ -5719,7 +5606,7 @@
       <c r="M31" s="96"/>
       <c r="N31" s="137"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="136"/>
       <c r="C32" s="96"/>
       <c r="D32" s="96"/>
@@ -5734,7 +5621,7 @@
       <c r="M32" s="96"/>
       <c r="N32" s="137"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="136"/>
       <c r="C33" s="96"/>
       <c r="D33" s="96"/>
@@ -5749,7 +5636,7 @@
       <c r="M33" s="96"/>
       <c r="N33" s="137"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="136"/>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
@@ -5764,7 +5651,7 @@
       <c r="M34" s="96"/>
       <c r="N34" s="137"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="136"/>
       <c r="C35" s="96"/>
       <c r="D35" s="96"/>
@@ -5779,7 +5666,7 @@
       <c r="M35" s="96"/>
       <c r="N35" s="137"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="136"/>
       <c r="C36" s="96"/>
       <c r="D36" s="96"/>
@@ -5794,7 +5681,7 @@
       <c r="M36" s="96"/>
       <c r="N36" s="137"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="136"/>
       <c r="C37" s="96"/>
       <c r="D37" s="96"/>
@@ -5809,7 +5696,7 @@
       <c r="M37" s="96"/>
       <c r="N37" s="137"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="136"/>
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
@@ -5824,7 +5711,7 @@
       <c r="M38" s="96"/>
       <c r="N38" s="137"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="136"/>
       <c r="C39" s="96"/>
       <c r="D39" s="96"/>
@@ -5839,7 +5726,7 @@
       <c r="M39" s="96"/>
       <c r="N39" s="137"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="136"/>
       <c r="C40" s="96"/>
       <c r="D40" s="96"/>
@@ -5854,7 +5741,7 @@
       <c r="M40" s="96"/>
       <c r="N40" s="137"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="136"/>
       <c r="C41" s="96"/>
       <c r="D41" s="96"/>
@@ -5869,10 +5756,10 @@
       <c r="M41" s="96"/>
       <c r="N41" s="137"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="136"/>
       <c r="C42" s="103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -5886,10 +5773,10 @@
       <c r="M42" s="96"/>
       <c r="N42" s="137"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="136"/>
       <c r="C43" s="103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D43" s="96"/>
       <c r="E43" s="96"/>
@@ -5903,7 +5790,7 @@
       <c r="M43" s="96"/>
       <c r="N43" s="137"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="136"/>
       <c r="C44" s="96"/>
       <c r="D44" s="96"/>
@@ -5918,7 +5805,7 @@
       <c r="M44" s="96"/>
       <c r="N44" s="137"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="136"/>
       <c r="C45" s="96"/>
       <c r="D45" s="96"/>
@@ -5933,7 +5820,7 @@
       <c r="M45" s="96"/>
       <c r="N45" s="137"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="136"/>
       <c r="C46" s="96"/>
       <c r="D46" s="96"/>
@@ -5948,7 +5835,7 @@
       <c r="M46" s="96"/>
       <c r="N46" s="137"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="136"/>
       <c r="C47" s="96"/>
       <c r="D47" s="96"/>
@@ -5963,7 +5850,7 @@
       <c r="M47" s="96"/>
       <c r="N47" s="137"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="136"/>
       <c r="C48" s="96"/>
       <c r="D48" s="96"/>
@@ -5978,14 +5865,14 @@
       <c r="M48" s="96"/>
       <c r="N48" s="137"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="136"/>
       <c r="C49" s="96"/>
       <c r="D49" s="96">
         <v>12</v>
       </c>
       <c r="E49" s="103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="96"/>
       <c r="G49" s="96"/>
@@ -5997,7 +5884,7 @@
       <c r="M49" s="96"/>
       <c r="N49" s="137"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="136"/>
       <c r="C50" s="96"/>
       <c r="D50" s="96"/>
@@ -6012,7 +5899,7 @@
       <c r="M50" s="96"/>
       <c r="N50" s="137"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="136"/>
       <c r="C51" s="96"/>
       <c r="D51" s="96"/>
@@ -6027,7 +5914,7 @@
       <c r="M51" s="96"/>
       <c r="N51" s="137"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="136"/>
       <c r="C52" s="96"/>
       <c r="D52" s="96"/>
@@ -6042,7 +5929,7 @@
       <c r="M52" s="96"/>
       <c r="N52" s="137"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="136"/>
       <c r="C53" s="96"/>
       <c r="D53" s="96"/>
@@ -6057,7 +5944,7 @@
       <c r="M53" s="96"/>
       <c r="N53" s="137"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="136"/>
       <c r="C54" s="96"/>
       <c r="D54" s="96"/>
@@ -6072,7 +5959,7 @@
       <c r="M54" s="96"/>
       <c r="N54" s="137"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="136"/>
       <c r="C55" s="96"/>
       <c r="D55" s="96"/>
@@ -6087,7 +5974,7 @@
       <c r="M55" s="96"/>
       <c r="N55" s="137"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="136"/>
       <c r="C56" s="96"/>
       <c r="D56" s="96"/>
@@ -6102,7 +5989,7 @@
       <c r="M56" s="96"/>
       <c r="N56" s="137"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="136"/>
       <c r="C57" s="96"/>
       <c r="D57" s="96"/>
@@ -6117,7 +6004,7 @@
       <c r="M57" s="96"/>
       <c r="N57" s="137"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="136"/>
       <c r="C58" s="96"/>
       <c r="D58" s="96"/>
@@ -6132,7 +6019,7 @@
       <c r="M58" s="96"/>
       <c r="N58" s="137"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="136"/>
       <c r="C59" s="96"/>
       <c r="D59" s="96"/>
@@ -6147,7 +6034,7 @@
       <c r="M59" s="96"/>
       <c r="N59" s="137"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="136"/>
       <c r="C60" s="96"/>
       <c r="D60" s="96"/>
@@ -6162,7 +6049,7 @@
       <c r="M60" s="96"/>
       <c r="N60" s="137"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="136"/>
       <c r="C61" s="96"/>
       <c r="D61" s="96"/>
@@ -6177,10 +6064,10 @@
       <c r="M61" s="96"/>
       <c r="N61" s="137"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="136"/>
       <c r="C62" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="96"/>
       <c r="E62" s="96"/>
@@ -6194,10 +6081,10 @@
       <c r="M62" s="96"/>
       <c r="N62" s="137"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="136"/>
       <c r="C63" s="96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D63" s="96"/>
       <c r="E63" s="96"/>
@@ -6211,7 +6098,7 @@
       <c r="M63" s="96"/>
       <c r="N63" s="137"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="136"/>
       <c r="C64" s="96"/>
       <c r="D64" s="96"/>
@@ -6226,7 +6113,7 @@
       <c r="M64" s="96"/>
       <c r="N64" s="137"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="136"/>
       <c r="C65" s="96"/>
       <c r="D65" s="96"/>
@@ -6241,7 +6128,7 @@
       <c r="M65" s="96"/>
       <c r="N65" s="137"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="136"/>
       <c r="C66" s="96"/>
       <c r="D66" s="96"/>
@@ -6256,7 +6143,7 @@
       <c r="M66" s="96"/>
       <c r="N66" s="137"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="136"/>
       <c r="C67" s="96"/>
       <c r="D67" s="96"/>
@@ -6271,7 +6158,7 @@
       <c r="M67" s="96"/>
       <c r="N67" s="137"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="136"/>
       <c r="C68" s="96"/>
       <c r="D68" s="96"/>
@@ -6286,11 +6173,11 @@
       <c r="M68" s="96"/>
       <c r="N68" s="137"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="136"/>
       <c r="C69" s="96"/>
       <c r="D69" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E69" s="139">
         <v>0.03</v>
@@ -6305,11 +6192,11 @@
       <c r="M69" s="96"/>
       <c r="N69" s="137"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="136"/>
       <c r="C70" s="96"/>
       <c r="D70" s="96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" s="139">
         <v>0.03</v>
@@ -6324,11 +6211,11 @@
       <c r="M70" s="96"/>
       <c r="N70" s="137"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="136"/>
       <c r="C71" s="96"/>
       <c r="D71" s="96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="139">
         <v>0.03</v>
@@ -6343,11 +6230,11 @@
       <c r="M71" s="96"/>
       <c r="N71" s="137"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="136"/>
       <c r="C72" s="96"/>
       <c r="D72" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="139">
         <v>0.04</v>
@@ -6362,11 +6249,11 @@
       <c r="M72" s="96"/>
       <c r="N72" s="137"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="136"/>
       <c r="C73" s="96"/>
       <c r="D73" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E73" s="139">
         <f>SUM(E69:E72)</f>
@@ -6382,7 +6269,7 @@
       <c r="M73" s="96"/>
       <c r="N73" s="137"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="136"/>
       <c r="C74" s="96"/>
       <c r="D74" s="96"/>
@@ -6397,7 +6284,7 @@
       <c r="M74" s="96"/>
       <c r="N74" s="137"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="136"/>
       <c r="C75" s="96"/>
       <c r="D75" s="96"/>
@@ -6412,7 +6299,7 @@
       <c r="M75" s="96"/>
       <c r="N75" s="137"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="136"/>
       <c r="C76" s="96"/>
       <c r="D76" s="96"/>
@@ -6427,7 +6314,7 @@
       <c r="M76" s="96"/>
       <c r="N76" s="137"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="136"/>
       <c r="C77" s="96"/>
       <c r="D77" s="96"/>
@@ -6442,7 +6329,7 @@
       <c r="M77" s="96"/>
       <c r="N77" s="137"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="136"/>
       <c r="C78" s="96"/>
       <c r="D78" s="96"/>
@@ -6457,7 +6344,7 @@
       <c r="M78" s="96"/>
       <c r="N78" s="137"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="136"/>
       <c r="C79" s="96"/>
       <c r="D79" s="96"/>
@@ -6472,7 +6359,7 @@
       <c r="M79" s="96"/>
       <c r="N79" s="137"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="136"/>
       <c r="C80" s="96"/>
       <c r="D80" s="96"/>
@@ -6487,7 +6374,7 @@
       <c r="M80" s="96"/>
       <c r="N80" s="137"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="136"/>
       <c r="C81" s="96"/>
       <c r="D81" s="96"/>
@@ -6502,7 +6389,7 @@
       <c r="M81" s="96"/>
       <c r="N81" s="137"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="136"/>
       <c r="C82" s="96"/>
       <c r="D82" s="96"/>
@@ -6517,7 +6404,7 @@
       <c r="M82" s="96"/>
       <c r="N82" s="137"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="136"/>
       <c r="C83" s="96"/>
       <c r="D83" s="96"/>
@@ -6532,7 +6419,7 @@
       <c r="M83" s="96"/>
       <c r="N83" s="137"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="136"/>
       <c r="C84" s="96"/>
       <c r="D84" s="96"/>
@@ -6547,7 +6434,7 @@
       <c r="M84" s="96"/>
       <c r="N84" s="137"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="136"/>
       <c r="C85" s="96"/>
       <c r="D85" s="96"/>
@@ -6562,10 +6449,10 @@
       <c r="M85" s="96"/>
       <c r="N85" s="137"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="136"/>
       <c r="C86" s="103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D86" s="96"/>
       <c r="E86" s="96"/>
@@ -6579,7 +6466,7 @@
       <c r="M86" s="96"/>
       <c r="N86" s="137"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="136"/>
       <c r="C87" s="96"/>
       <c r="D87" s="96"/>
@@ -6594,7 +6481,7 @@
       <c r="M87" s="96"/>
       <c r="N87" s="137"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="136"/>
       <c r="C88" s="96"/>
       <c r="D88" s="96"/>
@@ -6609,7 +6496,7 @@
       <c r="M88" s="96"/>
       <c r="N88" s="137"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="136"/>
       <c r="C89" s="96"/>
       <c r="D89" s="96"/>
@@ -6624,7 +6511,7 @@
       <c r="M89" s="96"/>
       <c r="N89" s="137"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="136"/>
       <c r="C90" s="96"/>
       <c r="D90" s="96"/>
@@ -6639,14 +6526,14 @@
       <c r="M90" s="96"/>
       <c r="N90" s="137"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="136"/>
       <c r="C91" s="96"/>
       <c r="D91" s="103">
         <v>20</v>
       </c>
       <c r="E91" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F91" s="96"/>
       <c r="G91" s="96"/>
@@ -6658,7 +6545,7 @@
       <c r="M91" s="96"/>
       <c r="N91" s="137"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="136"/>
       <c r="C92" s="96"/>
       <c r="D92" s="96"/>
@@ -6673,7 +6560,7 @@
       <c r="M92" s="96"/>
       <c r="N92" s="137"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="136"/>
       <c r="C93" s="96"/>
       <c r="D93" s="96"/>
@@ -6688,7 +6575,7 @@
       <c r="M93" s="96"/>
       <c r="N93" s="137"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="136"/>
       <c r="C94" s="96"/>
       <c r="D94" s="96"/>
@@ -6703,10 +6590,10 @@
       <c r="M94" s="96"/>
       <c r="N94" s="137"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="136"/>
       <c r="C95" s="103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="96"/>
       <c r="E95" s="96"/>
@@ -6720,7 +6607,7 @@
       <c r="M95" s="96"/>
       <c r="N95" s="137"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="136"/>
       <c r="C96" s="96"/>
       <c r="D96" s="96"/>
@@ -6735,10 +6622,10 @@
       <c r="M96" s="96"/>
       <c r="N96" s="137"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="136"/>
       <c r="C97" s="103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D97" s="96"/>
       <c r="E97" s="96"/>
@@ -6752,7 +6639,7 @@
       <c r="M97" s="96"/>
       <c r="N97" s="137"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="136"/>
       <c r="C98" s="96"/>
       <c r="D98" s="96"/>
@@ -6767,7 +6654,7 @@
       <c r="M98" s="96"/>
       <c r="N98" s="137"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="136"/>
       <c r="C99" s="96"/>
       <c r="D99" s="96"/>
@@ -6782,7 +6669,7 @@
       <c r="M99" s="96"/>
       <c r="N99" s="137"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="136"/>
       <c r="C100" s="96"/>
       <c r="D100" s="96"/>
@@ -6797,7 +6684,7 @@
       <c r="M100" s="96"/>
       <c r="N100" s="137"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="136"/>
       <c r="C101" s="96"/>
       <c r="D101" s="96"/>
@@ -6812,7 +6699,7 @@
       <c r="M101" s="96"/>
       <c r="N101" s="137"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="136"/>
       <c r="C102" s="96"/>
       <c r="D102" s="96"/>
@@ -6827,7 +6714,7 @@
       <c r="M102" s="96"/>
       <c r="N102" s="137"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="136"/>
       <c r="C103" s="96"/>
       <c r="D103" s="96"/>
@@ -6842,7 +6729,7 @@
       <c r="M103" s="96"/>
       <c r="N103" s="137"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="136"/>
       <c r="C104" s="96"/>
       <c r="D104" s="96"/>
@@ -6857,7 +6744,7 @@
       <c r="M104" s="96"/>
       <c r="N104" s="137"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="136"/>
       <c r="C105" s="96"/>
       <c r="D105" s="96"/>
@@ -6872,7 +6759,7 @@
       <c r="M105" s="96"/>
       <c r="N105" s="137"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="136"/>
       <c r="C106" s="96"/>
       <c r="D106" s="96"/>
@@ -6887,14 +6774,14 @@
       <c r="M106" s="96"/>
       <c r="N106" s="137"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="136"/>
       <c r="C107" s="96"/>
       <c r="D107" s="96">
         <v>12</v>
       </c>
       <c r="E107" s="103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F107" s="96"/>
       <c r="G107" s="96"/>
@@ -6906,7 +6793,7 @@
       <c r="M107" s="96"/>
       <c r="N107" s="137"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="136"/>
       <c r="C108" s="96"/>
       <c r="D108" s="96"/>
@@ -6921,7 +6808,7 @@
       <c r="M108" s="96"/>
       <c r="N108" s="137"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="136"/>
       <c r="C109" s="96"/>
       <c r="D109" s="96"/>
@@ -6936,7 +6823,7 @@
       <c r="M109" s="96"/>
       <c r="N109" s="137"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="136"/>
       <c r="C110" s="96"/>
       <c r="D110" s="96"/>
@@ -6951,7 +6838,7 @@
       <c r="M110" s="96"/>
       <c r="N110" s="137"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="136"/>
       <c r="C111" s="96"/>
       <c r="D111" s="96"/>
@@ -6966,7 +6853,7 @@
       <c r="M111" s="96"/>
       <c r="N111" s="137"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="136"/>
       <c r="C112" s="96"/>
       <c r="D112" s="96"/>
@@ -6981,7 +6868,7 @@
       <c r="M112" s="96"/>
       <c r="N112" s="137"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="136"/>
       <c r="C113" s="96"/>
       <c r="D113" s="96"/>
@@ -6996,7 +6883,7 @@
       <c r="M113" s="96"/>
       <c r="N113" s="137"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="136"/>
       <c r="C114" s="96"/>
       <c r="D114" s="96"/>
@@ -7011,7 +6898,7 @@
       <c r="M114" s="96"/>
       <c r="N114" s="137"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="136"/>
       <c r="C115" s="96"/>
       <c r="D115" s="96"/>
@@ -7026,7 +6913,7 @@
       <c r="M115" s="96"/>
       <c r="N115" s="137"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="136"/>
       <c r="C116" s="96"/>
       <c r="D116" s="96"/>
@@ -7041,7 +6928,7 @@
       <c r="M116" s="96"/>
       <c r="N116" s="137"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="136"/>
       <c r="C117" s="96"/>
       <c r="D117" s="96"/>
@@ -7056,7 +6943,7 @@
       <c r="M117" s="96"/>
       <c r="N117" s="137"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="136"/>
       <c r="C118" s="96"/>
       <c r="D118" s="96"/>
@@ -7071,10 +6958,10 @@
       <c r="M118" s="96"/>
       <c r="N118" s="137"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="136"/>
       <c r="C119" s="103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119" s="96"/>
       <c r="E119" s="96"/>
@@ -7088,7 +6975,7 @@
       <c r="M119" s="96"/>
       <c r="N119" s="137"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="136"/>
       <c r="C120" s="96"/>
       <c r="D120" s="96"/>
@@ -7103,10 +6990,10 @@
       <c r="M120" s="96"/>
       <c r="N120" s="137"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="136"/>
       <c r="C121" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" s="96"/>
       <c r="E121" s="96"/>
@@ -7120,7 +7007,7 @@
       <c r="M121" s="96"/>
       <c r="N121" s="137"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="136"/>
       <c r="C122" s="96"/>
       <c r="D122" s="96"/>
@@ -7135,7 +7022,7 @@
       <c r="M122" s="96"/>
       <c r="N122" s="137"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="136"/>
       <c r="C123" s="96"/>
       <c r="D123" s="96"/>
@@ -7150,7 +7037,7 @@
       <c r="M123" s="96"/>
       <c r="N123" s="137"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="136"/>
       <c r="C124" s="96"/>
       <c r="D124" s="96"/>
@@ -7165,12 +7052,12 @@
       <c r="M124" s="96"/>
       <c r="N124" s="137"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="136"/>
       <c r="C125" s="96"/>
       <c r="D125" s="96"/>
       <c r="E125" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F125" s="96"/>
       <c r="G125" s="96"/>
@@ -7182,7 +7069,7 @@
       <c r="M125" s="96"/>
       <c r="N125" s="137"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="136"/>
       <c r="C126" s="96"/>
       <c r="D126" s="96"/>
@@ -7197,7 +7084,7 @@
       <c r="M126" s="96"/>
       <c r="N126" s="137"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="136"/>
       <c r="C127" s="96"/>
       <c r="D127" s="96"/>
@@ -7212,7 +7099,7 @@
       <c r="M127" s="96"/>
       <c r="N127" s="137"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="136"/>
       <c r="C128" s="96"/>
       <c r="D128" s="96"/>
@@ -7227,7 +7114,7 @@
       <c r="M128" s="96"/>
       <c r="N128" s="137"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="136"/>
       <c r="C129" s="96"/>
       <c r="D129" s="96"/>
@@ -7242,7 +7129,7 @@
       <c r="M129" s="96"/>
       <c r="N129" s="137"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="136"/>
       <c r="C130" s="96"/>
       <c r="D130" s="96"/>
@@ -7257,7 +7144,7 @@
       <c r="M130" s="96"/>
       <c r="N130" s="137"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="136"/>
       <c r="C131" s="96"/>
       <c r="D131" s="96"/>
@@ -7272,7 +7159,7 @@
       <c r="M131" s="96"/>
       <c r="N131" s="137"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="136"/>
       <c r="C132" s="96"/>
       <c r="D132" s="96"/>
@@ -7287,7 +7174,7 @@
       <c r="M132" s="96"/>
       <c r="N132" s="137"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="136"/>
       <c r="C133" s="96"/>
       <c r="D133" s="96"/>
@@ -7302,7 +7189,7 @@
       <c r="M133" s="96"/>
       <c r="N133" s="137"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="136"/>
       <c r="C134" s="96"/>
       <c r="D134" s="96"/>
@@ -7317,7 +7204,7 @@
       <c r="M134" s="96"/>
       <c r="N134" s="137"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="136"/>
       <c r="C135" s="96"/>
       <c r="D135" s="96"/>
@@ -7332,7 +7219,7 @@
       <c r="M135" s="96"/>
       <c r="N135" s="137"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="136"/>
       <c r="C136" s="96"/>
       <c r="D136" s="96"/>
@@ -7347,7 +7234,7 @@
       <c r="M136" s="96"/>
       <c r="N136" s="137"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="136"/>
       <c r="C137" s="96"/>
       <c r="D137" s="96"/>
@@ -7362,7 +7249,7 @@
       <c r="M137" s="96"/>
       <c r="N137" s="137"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="136"/>
       <c r="C138" s="96"/>
       <c r="D138" s="96"/>
@@ -7377,7 +7264,7 @@
       <c r="M138" s="96"/>
       <c r="N138" s="137"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="136"/>
       <c r="C139" s="96"/>
       <c r="D139" s="96"/>
@@ -7392,7 +7279,7 @@
       <c r="M139" s="96"/>
       <c r="N139" s="137"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="136"/>
       <c r="C140" s="96"/>
       <c r="D140" s="96"/>
@@ -7407,7 +7294,7 @@
       <c r="M140" s="96"/>
       <c r="N140" s="137"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="136"/>
       <c r="C141" s="96"/>
       <c r="D141" s="96"/>
@@ -7422,10 +7309,10 @@
       <c r="M141" s="96"/>
       <c r="N141" s="137"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="136"/>
       <c r="C142" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D142" s="96"/>
       <c r="E142" s="96"/>
@@ -7439,7 +7326,7 @@
       <c r="M142" s="96"/>
       <c r="N142" s="137"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="136"/>
       <c r="C143" s="96"/>
       <c r="D143" s="96"/>
@@ -7454,7 +7341,7 @@
       <c r="M143" s="96"/>
       <c r="N143" s="137"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="136"/>
       <c r="C144" s="96"/>
       <c r="D144" s="96"/>
@@ -7469,7 +7356,7 @@
       <c r="M144" s="96"/>
       <c r="N144" s="137"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="136"/>
       <c r="C145" s="96"/>
       <c r="D145" s="96"/>
@@ -7484,14 +7371,14 @@
       <c r="M145" s="96"/>
       <c r="N145" s="137"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="136"/>
       <c r="C146" s="96"/>
       <c r="D146" s="96">
         <v>20</v>
       </c>
       <c r="E146" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F146" s="96"/>
       <c r="G146" s="96"/>
@@ -7503,7 +7390,7 @@
       <c r="M146" s="96"/>
       <c r="N146" s="137"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="136"/>
       <c r="C147" s="96"/>
       <c r="D147" s="96"/>
@@ -7518,7 +7405,7 @@
       <c r="M147" s="96"/>
       <c r="N147" s="137"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="136"/>
       <c r="C148" s="96"/>
       <c r="D148" s="96"/>
@@ -7533,7 +7420,7 @@
       <c r="M148" s="96"/>
       <c r="N148" s="137"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="136"/>
       <c r="C149" s="96"/>
       <c r="D149" s="96"/>
@@ -7548,10 +7435,10 @@
       <c r="M149" s="96"/>
       <c r="N149" s="137"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="136"/>
       <c r="C150" s="103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D150" s="96"/>
       <c r="E150" s="96"/>
@@ -7565,10 +7452,10 @@
       <c r="M150" s="96"/>
       <c r="N150" s="137"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="136"/>
       <c r="C151" s="103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="96"/>
       <c r="E151" s="96"/>
@@ -7582,7 +7469,7 @@
       <c r="M151" s="96"/>
       <c r="N151" s="137"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="136"/>
       <c r="C152" s="96"/>
       <c r="D152" s="96"/>
@@ -7597,7 +7484,7 @@
       <c r="M152" s="96"/>
       <c r="N152" s="137"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="136"/>
       <c r="C153" s="96"/>
       <c r="D153" s="96"/>
@@ -7612,7 +7499,7 @@
       <c r="M153" s="96"/>
       <c r="N153" s="137"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="136"/>
       <c r="C154" s="96"/>
       <c r="D154" s="96"/>
@@ -7627,7 +7514,7 @@
       <c r="M154" s="96"/>
       <c r="N154" s="137"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="136"/>
       <c r="C155" s="96"/>
       <c r="D155" s="96"/>
@@ -7642,12 +7529,12 @@
       <c r="M155" s="96"/>
       <c r="N155" s="137"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="136"/>
       <c r="C156" s="96"/>
       <c r="D156" s="96"/>
       <c r="E156" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F156" s="96"/>
       <c r="G156" s="96"/>
@@ -7659,11 +7546,11 @@
       <c r="M156" s="96"/>
       <c r="N156" s="137"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="136"/>
       <c r="C157" s="96"/>
       <c r="D157" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E157" s="143">
         <v>5</v>
@@ -7678,7 +7565,7 @@
       <c r="M157" s="96"/>
       <c r="N157" s="137"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="136"/>
       <c r="C158" s="96"/>
       <c r="D158" s="96"/>
@@ -7693,7 +7580,7 @@
       <c r="M158" s="96"/>
       <c r="N158" s="137"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="136"/>
       <c r="C159" s="96"/>
       <c r="D159" s="96"/>
@@ -7708,7 +7595,7 @@
       <c r="M159" s="96"/>
       <c r="N159" s="137"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="136"/>
       <c r="C160" s="96"/>
       <c r="D160" s="96"/>
@@ -7723,7 +7610,7 @@
       <c r="M160" s="96"/>
       <c r="N160" s="137"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="136"/>
       <c r="C161" s="96"/>
       <c r="D161" s="96"/>
@@ -7738,7 +7625,7 @@
       <c r="M161" s="96"/>
       <c r="N161" s="137"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="136"/>
       <c r="C162" s="96"/>
       <c r="D162" s="96"/>
@@ -7753,7 +7640,7 @@
       <c r="M162" s="96"/>
       <c r="N162" s="137"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="136"/>
       <c r="C163" s="96"/>
       <c r="D163" s="96"/>
@@ -7768,7 +7655,7 @@
       <c r="M163" s="96"/>
       <c r="N163" s="137"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="136"/>
       <c r="C164" s="96"/>
       <c r="D164" s="96"/>
@@ -7783,7 +7670,7 @@
       <c r="M164" s="96"/>
       <c r="N164" s="137"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="136"/>
       <c r="C165" s="96"/>
       <c r="D165" s="96"/>
@@ -7798,7 +7685,7 @@
       <c r="M165" s="96"/>
       <c r="N165" s="137"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="136"/>
       <c r="C166" s="96"/>
       <c r="D166" s="96"/>
@@ -7813,7 +7700,7 @@
       <c r="M166" s="96"/>
       <c r="N166" s="137"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="136"/>
       <c r="C167" s="96"/>
       <c r="D167" s="96"/>
@@ -7828,10 +7715,10 @@
       <c r="M167" s="96"/>
       <c r="N167" s="137"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="136"/>
       <c r="C168" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" s="96"/>
       <c r="E168" s="96"/>
@@ -7845,7 +7732,7 @@
       <c r="M168" s="96"/>
       <c r="N168" s="137"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="136"/>
       <c r="C169" s="96"/>
       <c r="D169" s="96"/>
@@ -7860,7 +7747,7 @@
       <c r="M169" s="96"/>
       <c r="N169" s="137"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="136"/>
       <c r="C170" s="96"/>
       <c r="D170" s="96"/>
@@ -7875,7 +7762,7 @@
       <c r="M170" s="96"/>
       <c r="N170" s="137"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="136"/>
       <c r="C171" s="96"/>
       <c r="D171" s="96"/>
@@ -7890,7 +7777,7 @@
       <c r="M171" s="96"/>
       <c r="N171" s="137"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="136"/>
       <c r="C172" s="96"/>
       <c r="D172" s="96"/>
@@ -7905,7 +7792,7 @@
       <c r="M172" s="96"/>
       <c r="N172" s="137"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="136"/>
       <c r="C173" s="96"/>
       <c r="D173" s="96"/>
@@ -7920,7 +7807,7 @@
       <c r="M173" s="96"/>
       <c r="N173" s="137"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="136"/>
       <c r="C174" s="96"/>
       <c r="D174" s="96"/>
@@ -7935,7 +7822,7 @@
       <c r="M174" s="96"/>
       <c r="N174" s="137"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="136"/>
       <c r="C175" s="96"/>
       <c r="D175" s="96"/>
@@ -7950,7 +7837,7 @@
       <c r="M175" s="96"/>
       <c r="N175" s="137"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="136"/>
       <c r="C176" s="96"/>
       <c r="D176" s="96"/>
@@ -7965,7 +7852,7 @@
       <c r="M176" s="96"/>
       <c r="N176" s="137"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="136"/>
       <c r="C177" s="96"/>
       <c r="D177" s="96"/>
@@ -7980,7 +7867,7 @@
       <c r="M177" s="96"/>
       <c r="N177" s="137"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="136"/>
       <c r="C178" s="96"/>
       <c r="D178" s="96"/>
@@ -7995,7 +7882,7 @@
       <c r="M178" s="96"/>
       <c r="N178" s="137"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="136"/>
       <c r="C179" s="96"/>
       <c r="D179" s="96"/>
@@ -8010,7 +7897,7 @@
       <c r="M179" s="96"/>
       <c r="N179" s="137"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="136"/>
       <c r="C180" s="96"/>
       <c r="D180" s="96"/>
@@ -8025,7 +7912,7 @@
       <c r="M180" s="96"/>
       <c r="N180" s="137"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="136"/>
       <c r="C181" s="96"/>
       <c r="D181" s="96"/>
@@ -8040,7 +7927,7 @@
       <c r="M181" s="96"/>
       <c r="N181" s="137"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="136"/>
       <c r="C182" s="96"/>
       <c r="D182" s="96"/>
@@ -8055,7 +7942,7 @@
       <c r="M182" s="96"/>
       <c r="N182" s="137"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="136"/>
       <c r="C183" s="96"/>
       <c r="D183" s="96"/>
@@ -8070,7 +7957,7 @@
       <c r="M183" s="96"/>
       <c r="N183" s="137"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="136"/>
       <c r="C184" s="96"/>
       <c r="D184" s="96"/>
@@ -8085,7 +7972,7 @@
       <c r="M184" s="96"/>
       <c r="N184" s="137"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="136"/>
       <c r="C185" s="96"/>
       <c r="D185" s="96"/>
@@ -8100,7 +7987,7 @@
       <c r="M185" s="96"/>
       <c r="N185" s="137"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="136"/>
       <c r="C186" s="96"/>
       <c r="D186" s="96"/>
@@ -8115,7 +8002,7 @@
       <c r="M186" s="96"/>
       <c r="N186" s="137"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="136"/>
       <c r="C187" s="96"/>
       <c r="D187" s="96"/>
@@ -8130,7 +8017,7 @@
       <c r="M187" s="96"/>
       <c r="N187" s="137"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="136"/>
       <c r="C188" s="96"/>
       <c r="D188" s="96"/>
@@ -8145,7 +8032,7 @@
       <c r="M188" s="96"/>
       <c r="N188" s="137"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="136"/>
       <c r="C189" s="96"/>
       <c r="D189" s="96"/>
@@ -8160,7 +8047,7 @@
       <c r="M189" s="96"/>
       <c r="N189" s="137"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="136"/>
       <c r="C190" s="96"/>
       <c r="D190" s="96"/>
@@ -8168,7 +8055,7 @@
         <v>90</v>
       </c>
       <c r="F190" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G190" s="96"/>
       <c r="H190" s="96"/>
@@ -8179,7 +8066,7 @@
       <c r="M190" s="96"/>
       <c r="N190" s="137"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="136"/>
       <c r="C191" s="96"/>
       <c r="D191" s="96"/>
@@ -8194,7 +8081,7 @@
       <c r="M191" s="96"/>
       <c r="N191" s="137"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="136"/>
       <c r="C192" s="103" t="s">
         <v>83</v>
@@ -8211,10 +8098,10 @@
       <c r="M192" s="96"/>
       <c r="N192" s="137"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="136"/>
       <c r="C193" s="103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D193" s="96"/>
       <c r="E193" s="96"/>
@@ -8228,7 +8115,7 @@
       <c r="M193" s="96"/>
       <c r="N193" s="137"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="136"/>
       <c r="C194" s="96"/>
       <c r="D194" s="96"/>
@@ -8243,7 +8130,7 @@
       <c r="M194" s="96"/>
       <c r="N194" s="137"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="136"/>
       <c r="C195" s="96"/>
       <c r="D195" s="96"/>
@@ -8258,7 +8145,7 @@
       <c r="M195" s="96"/>
       <c r="N195" s="137"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="136"/>
       <c r="C196" s="96"/>
       <c r="D196" s="96"/>
@@ -8273,7 +8160,7 @@
       <c r="M196" s="96"/>
       <c r="N196" s="137"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="136"/>
       <c r="C197" s="96"/>
       <c r="D197" s="96"/>
@@ -8288,7 +8175,7 @@
       <c r="M197" s="96"/>
       <c r="N197" s="137"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="136"/>
       <c r="C198" s="96"/>
       <c r="D198" s="96"/>
@@ -8303,7 +8190,7 @@
       <c r="M198" s="96"/>
       <c r="N198" s="137"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="136"/>
       <c r="C199" s="96"/>
       <c r="D199" s="96"/>
@@ -8318,7 +8205,7 @@
       <c r="M199" s="96"/>
       <c r="N199" s="137"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="136"/>
       <c r="C200" s="96"/>
       <c r="D200" s="96"/>
@@ -8333,7 +8220,7 @@
       <c r="M200" s="96"/>
       <c r="N200" s="137"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B201" s="136"/>
       <c r="C201" s="96"/>
       <c r="D201" s="96"/>
@@ -8348,7 +8235,7 @@
       <c r="M201" s="96"/>
       <c r="N201" s="137"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B202" s="136"/>
       <c r="C202" s="96"/>
       <c r="D202" s="96"/>
@@ -8363,7 +8250,7 @@
       <c r="M202" s="96"/>
       <c r="N202" s="137"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B203" s="136"/>
       <c r="C203" s="96"/>
       <c r="D203" s="96"/>
@@ -8378,7 +8265,7 @@
       <c r="M203" s="96"/>
       <c r="N203" s="137"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B204" s="136"/>
       <c r="C204" s="96"/>
       <c r="D204" s="96"/>
@@ -8393,7 +8280,7 @@
       <c r="M204" s="96"/>
       <c r="N204" s="137"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B205" s="136"/>
       <c r="C205" s="96"/>
       <c r="D205" s="96"/>
@@ -8408,7 +8295,7 @@
       <c r="M205" s="96"/>
       <c r="N205" s="137"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B206" s="136"/>
       <c r="C206" s="96"/>
       <c r="D206" s="96"/>
@@ -8423,7 +8310,7 @@
       <c r="M206" s="96"/>
       <c r="N206" s="137"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B207" s="136"/>
       <c r="C207" s="96"/>
       <c r="D207" s="96"/>
@@ -8438,7 +8325,7 @@
       <c r="M207" s="96"/>
       <c r="N207" s="137"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B208" s="136"/>
       <c r="C208" s="96"/>
       <c r="D208" s="96"/>
@@ -8453,7 +8340,7 @@
       <c r="M208" s="96"/>
       <c r="N208" s="137"/>
     </row>
-    <row r="209" spans="2:14">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B209" s="136"/>
       <c r="C209" s="96"/>
       <c r="D209" s="96"/>
@@ -8468,7 +8355,7 @@
       <c r="M209" s="96"/>
       <c r="N209" s="137"/>
     </row>
-    <row r="210" spans="2:14">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B210" s="136"/>
       <c r="C210" s="96"/>
       <c r="D210" s="96"/>
@@ -8483,18 +8370,18 @@
       <c r="M210" s="96"/>
       <c r="N210" s="137"/>
     </row>
-    <row r="211" spans="2:14">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B211" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C211" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D211" s="103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E211" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F211" s="96"/>
       <c r="G211" s="96"/>
@@ -8506,17 +8393,17 @@
       <c r="M211" s="96"/>
       <c r="N211" s="137"/>
     </row>
-    <row r="212" spans="2:14">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B212" s="136"/>
       <c r="C212" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D212" s="96">
         <f>(1600+1940)/2</f>
         <v>1770</v>
       </c>
       <c r="E212" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F212" s="96"/>
       <c r="G212" s="96"/>
@@ -8528,14 +8415,14 @@
       <c r="M212" s="96"/>
       <c r="N212" s="137"/>
     </row>
-    <row r="213" spans="2:14">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B213" s="136"/>
       <c r="C213" s="96"/>
       <c r="D213" s="96">
         <v>1375</v>
       </c>
       <c r="E213" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F213" s="96"/>
       <c r="G213" s="96"/>
@@ -8547,7 +8434,7 @@
       <c r="M213" s="96"/>
       <c r="N213" s="137"/>
     </row>
-    <row r="214" spans="2:14">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B214" s="136"/>
       <c r="C214" s="96"/>
       <c r="D214" s="96"/>
@@ -8562,16 +8449,16 @@
       <c r="M214" s="96"/>
       <c r="N214" s="137"/>
     </row>
-    <row r="215" spans="2:14">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B215" s="136"/>
       <c r="C215" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="D215" s="103" t="s">
-        <v>179</v>
-      </c>
       <c r="E215" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F215" s="96"/>
       <c r="G215" s="96"/>
@@ -8583,17 +8470,17 @@
       <c r="M215" s="96"/>
       <c r="N215" s="137"/>
     </row>
-    <row r="216" spans="2:14">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B216" s="136"/>
       <c r="C216" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D216" s="96">
         <f>(23+28.7)/2</f>
         <v>25.85</v>
       </c>
       <c r="E216" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F216" s="96"/>
       <c r="G216" s="96"/>
@@ -8605,14 +8492,14 @@
       <c r="M216" s="96"/>
       <c r="N216" s="137"/>
     </row>
-    <row r="217" spans="2:14">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B217" s="136"/>
       <c r="C217" s="96"/>
       <c r="D217" s="96">
         <v>20</v>
       </c>
       <c r="E217" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F217" s="96"/>
       <c r="G217" s="96"/>
@@ -8624,18 +8511,18 @@
       <c r="M217" s="96"/>
       <c r="N217" s="137"/>
     </row>
-    <row r="218" spans="2:14">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B218" s="108" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D218" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E218" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F218" s="96"/>
       <c r="G218" s="96"/>
@@ -8647,17 +8534,17 @@
       <c r="M218" s="96"/>
       <c r="N218" s="137"/>
     </row>
-    <row r="219" spans="2:14">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B219" s="136"/>
       <c r="C219" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D219" s="96">
         <f>(1440+1610)/2</f>
         <v>1525</v>
       </c>
       <c r="E219" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F219" s="96"/>
       <c r="G219" s="96"/>
@@ -8669,14 +8556,14 @@
       <c r="M219" s="96"/>
       <c r="N219" s="137"/>
     </row>
-    <row r="220" spans="2:14">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B220" s="136"/>
       <c r="C220" s="96"/>
       <c r="D220" s="96">
         <v>1185</v>
       </c>
       <c r="E220" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F220" s="96"/>
       <c r="G220" s="96"/>
@@ -8688,7 +8575,7 @@
       <c r="M220" s="96"/>
       <c r="N220" s="137"/>
     </row>
-    <row r="221" spans="2:14">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B221" s="136"/>
       <c r="C221" s="96"/>
       <c r="D221" s="96"/>
@@ -8703,16 +8590,16 @@
       <c r="M221" s="96"/>
       <c r="N221" s="137"/>
     </row>
-    <row r="222" spans="2:14">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B222" s="136"/>
       <c r="C222" s="103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F222" s="96"/>
       <c r="G222" s="96"/>
@@ -8724,17 +8611,17 @@
       <c r="M222" s="96"/>
       <c r="N222" s="137"/>
     </row>
-    <row r="223" spans="2:14">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B223" s="136"/>
       <c r="C223" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D223" s="96">
         <f>(20+22.5)/2</f>
         <v>21.25</v>
       </c>
       <c r="E223" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F223" s="96"/>
       <c r="G223" s="96"/>
@@ -8746,14 +8633,14 @@
       <c r="M223" s="96"/>
       <c r="N223" s="137"/>
     </row>
-    <row r="224" spans="2:14">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B224" s="136"/>
       <c r="C224" s="96"/>
       <c r="D224" s="96">
         <v>16.5</v>
       </c>
       <c r="E224" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F224" s="96"/>
       <c r="G224" s="96"/>
@@ -8765,18 +8652,18 @@
       <c r="M224" s="96"/>
       <c r="N224" s="137"/>
     </row>
-    <row r="225" spans="2:14">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B225" s="108" t="s">
         <v>113</v>
       </c>
       <c r="C225" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D225" s="140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E225" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F225" s="96"/>
       <c r="G225" s="96"/>
@@ -8788,17 +8675,17 @@
       <c r="M225" s="96"/>
       <c r="N225" s="137"/>
     </row>
-    <row r="226" spans="2:14">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B226" s="136"/>
       <c r="C226" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D226" s="140">
         <f>(1510+1610)/2</f>
         <v>1560</v>
       </c>
       <c r="E226" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F226" s="96"/>
       <c r="G226" s="96"/>
@@ -8810,14 +8697,14 @@
       <c r="M226" s="96"/>
       <c r="N226" s="137"/>
     </row>
-    <row r="227" spans="2:14">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B227" s="136"/>
       <c r="C227" s="140"/>
       <c r="D227" s="140">
         <v>1212</v>
       </c>
       <c r="E227" s="140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F227" s="96"/>
       <c r="G227" s="96"/>
@@ -8829,7 +8716,7 @@
       <c r="M227" s="96"/>
       <c r="N227" s="137"/>
     </row>
-    <row r="228" spans="2:14">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B228" s="136"/>
       <c r="C228" s="140"/>
       <c r="D228" s="140"/>
@@ -8844,16 +8731,16 @@
       <c r="M228" s="96"/>
       <c r="N228" s="137"/>
     </row>
-    <row r="229" spans="2:14">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B229" s="136"/>
       <c r="C229" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D229" s="140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E229" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F229" s="96"/>
       <c r="G229" s="96"/>
@@ -8865,17 +8752,17 @@
       <c r="M229" s="96"/>
       <c r="N229" s="137"/>
     </row>
-    <row r="230" spans="2:14">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B230" s="136"/>
       <c r="C230" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D230" s="140">
         <f>(20+22.5)/2</f>
         <v>21.25</v>
       </c>
       <c r="E230" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F230" s="96"/>
       <c r="G230" s="96"/>
@@ -8887,14 +8774,14 @@
       <c r="M230" s="96"/>
       <c r="N230" s="137"/>
     </row>
-    <row r="231" spans="2:14">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B231" s="136"/>
       <c r="C231" s="140"/>
       <c r="D231" s="140">
         <v>16.5</v>
       </c>
       <c r="E231" s="140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F231" s="96"/>
       <c r="G231" s="96"/>
@@ -8906,7 +8793,7 @@
       <c r="M231" s="96"/>
       <c r="N231" s="137"/>
     </row>
-    <row r="232" spans="2:14">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B232" s="136"/>
       <c r="C232" s="96"/>
       <c r="D232" s="96"/>
@@ -8921,7 +8808,7 @@
       <c r="M232" s="96"/>
       <c r="N232" s="137"/>
     </row>
-    <row r="233" spans="2:14">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B233" s="136"/>
       <c r="C233" s="96"/>
       <c r="D233" s="96"/>
@@ -8936,7 +8823,7 @@
       <c r="M233" s="96"/>
       <c r="N233" s="137"/>
     </row>
-    <row r="234" spans="2:14">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B234" s="136"/>
       <c r="C234" s="96"/>
       <c r="D234" s="96"/>
@@ -8951,7 +8838,7 @@
       <c r="M234" s="96"/>
       <c r="N234" s="137"/>
     </row>
-    <row r="235" spans="2:14">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B235" s="136"/>
       <c r="C235" s="96"/>
       <c r="D235" s="96"/>
@@ -8966,7 +8853,7 @@
       <c r="M235" s="96"/>
       <c r="N235" s="137"/>
     </row>
-    <row r="236" spans="2:14">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B236" s="136"/>
       <c r="C236" s="96"/>
       <c r="D236" s="96"/>
@@ -8981,7 +8868,7 @@
       <c r="M236" s="96"/>
       <c r="N236" s="137"/>
     </row>
-    <row r="237" spans="2:14">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B237" s="136"/>
       <c r="C237" s="96"/>
       <c r="D237" s="96"/>
@@ -8996,7 +8883,7 @@
       <c r="M237" s="96"/>
       <c r="N237" s="137"/>
     </row>
-    <row r="238" spans="2:14">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B238" s="136"/>
       <c r="C238" s="96"/>
       <c r="D238" s="96"/>
@@ -9011,7 +8898,7 @@
       <c r="M238" s="96"/>
       <c r="N238" s="137"/>
     </row>
-    <row r="239" spans="2:14">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B239" s="136"/>
       <c r="C239" s="96"/>
       <c r="D239" s="96"/>
@@ -9026,7 +8913,7 @@
       <c r="M239" s="96"/>
       <c r="N239" s="137"/>
     </row>
-    <row r="240" spans="2:14">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B240" s="136"/>
       <c r="C240" s="96"/>
       <c r="D240" s="96"/>
@@ -9041,7 +8928,7 @@
       <c r="M240" s="96"/>
       <c r="N240" s="137"/>
     </row>
-    <row r="241" spans="2:14">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B241" s="136"/>
       <c r="C241" s="96"/>
       <c r="D241" s="96"/>
@@ -9056,7 +8943,7 @@
       <c r="M241" s="96"/>
       <c r="N241" s="137"/>
     </row>
-    <row r="242" spans="2:14">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B242" s="136"/>
       <c r="C242" s="96"/>
       <c r="D242" s="96"/>
@@ -9071,7 +8958,7 @@
       <c r="M242" s="96"/>
       <c r="N242" s="137"/>
     </row>
-    <row r="243" spans="2:14">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B243" s="136"/>
       <c r="C243" s="96"/>
       <c r="D243" s="96"/>
@@ -9090,10 +8977,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_wind_turbine_inland.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_wind_turbine_inland.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BA9D9-1025-AC4F-A33C-119CF226686F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B32C4-A77E-BD42-8626-D915E4126FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="191">
   <si>
     <t>Source</t>
   </si>
@@ -728,6 +734,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1484,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1728,6 +1737,7 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2971,12 +2981,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3151,22 +3161,22 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3633,15 +3643,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="41">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="34" t="s">
-        <v>65</v>
+      <c r="I29" s="154" t="s">
+        <v>190</v>
       </c>
       <c r="J29" s="80"/>
     </row>
@@ -3899,33 +3909,33 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="99" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="99" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="99" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="99" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="99" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="99" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="99" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="99" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="99" customWidth="1"/>
     <col min="7" max="7" width="3" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="99" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="99" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="99" customWidth="1"/>
-    <col min="11" max="11" width="1.5" style="99" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="99" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="99" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="99" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="99" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="99" customWidth="1"/>
-    <col min="17" max="17" width="2.1640625" style="99" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" style="99" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="99" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="99" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="99" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="99" customWidth="1"/>
-    <col min="23" max="23" width="1.83203125" style="99" customWidth="1"/>
-    <col min="24" max="24" width="55.5" style="99" customWidth="1"/>
-    <col min="25" max="16384" width="10.6640625" style="99"/>
+    <col min="8" max="8" width="9.42578125" style="99" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="99" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="99" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" style="99" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="99" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="99" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="99" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="99" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="99" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="99" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="99" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="99" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="99" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="99" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="99" customWidth="1"/>
+    <col min="23" max="23" width="1.85546875" style="99" customWidth="1"/>
+    <col min="24" max="24" width="55.42578125" style="99" customWidth="1"/>
+    <col min="25" max="16384" width="10.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="17" thickBot="1"/>
@@ -4587,18 +4597,18 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="49" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="50" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="49" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="50" customWidth="1"/>
     <col min="10" max="10" width="85" style="49" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="49"/>
+    <col min="11" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5062,13 +5072,13 @@
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="94" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="94" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="94"/>
-    <col min="4" max="4" width="10.6640625" style="94" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="94"/>
+    <col min="1" max="1" width="5.42578125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="94" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="94"/>
+    <col min="4" max="4" width="10.7109375" style="94" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
